--- a/NEW Tools/NHL 2002 PS2/TEST_results.xlsx
+++ b/NEW Tools/NHL 2002 PS2/TEST_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arek\Tools\NEW Tools\NHL 2002 PS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TEST NUM</t>
   </si>
@@ -45,13 +45,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>ART.BIG --&gt; awards.ssh
-ART.BIG --&gt; banner.ssh
-ART.BIG --&gt; menuart.ssh
-BHOTO.BIG --&gt; 0407.ssh
-BHOTO.BIG --&gt; 0733.ssh</t>
   </si>
   <si>
     <t>FIFA 09 (PS2)</t>
@@ -80,12 +73,25 @@
     <t>IMAGE TYPES</t>
   </si>
   <si>
-    <t>ZPIRACY.PSH
-ZNUMBERS.PSH
-ZFONT3.PSH</t>
-  </si>
-  <si>
-    <t>not working correctly</t>
+    <t>64, 65, 66</t>
+  </si>
+  <si>
+    <t>64 --&gt; OK or not working
+65 --&gt; wrong palette or not working
+66 --&gt; OK</t>
+  </si>
+  <si>
+    <t>ZPIRACY.PSH (66)
+ZNUMBERS.PSH (64)
+ZFONT3.PSH (64)
+ZDOLBY.PSH (65)</t>
+  </si>
+  <si>
+    <t>ART.BIG --&gt; awards.ssh (2)
+ART.BIG --&gt; banner.ssh (2)
+ART.BIG --&gt; menuart.ssh (2)
+BHOTO.BIG --&gt; 0407.ssh (2)
+BHOTO.BIG --&gt; 0733.ssh (2)</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <dimension ref="B3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +443,7 @@
     <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -451,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -475,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -490,13 +496,13 @@
         <v>44227</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -508,16 +514,16 @@
         <v>44227</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -526,16 +532,16 @@
         <v>44227</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/NEW Tools/NHL 2002 PS2/TEST_results.xlsx
+++ b/NEW Tools/NHL 2002 PS2/TEST_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>TEST NUM</t>
   </si>
@@ -50,21 +50,7 @@
     <t>FIFA 09 (PS2)</t>
   </si>
   <si>
-    <t>partially working, wrong palette
-OR not working</t>
-  </si>
-  <si>
-    <t>ZDATA_01.BIG --&gt; t226__135_3.ssh
-ZDATA_01.BIG --&gt; 01_mouth_1_0005.ssh</t>
-  </si>
-  <si>
     <t>Madden (PSP)</t>
-  </si>
-  <si>
-    <t>BRO0.msh</t>
-  </si>
-  <si>
-    <t>not working</t>
   </si>
   <si>
     <t>NBA Live 97 (PS1)</t>
@@ -92,6 +78,26 @@
 ART.BIG --&gt; menuart.ssh (2)
 BHOTO.BIG --&gt; 0407.ssh (2)
 BHOTO.BIG --&gt; 0733.ssh (2)</t>
+  </si>
+  <si>
+    <t>ZDATA_01.BIG --&gt; t226__135_3.ssh (2)
+ZDATA_01.BIG --&gt; 01_mouth_1_0005.ssh (131)</t>
+  </si>
+  <si>
+    <t>2 --&gt; partially working, wrong palette
+131 --&gt; not working</t>
+  </si>
+  <si>
+    <t>2, 131</t>
+  </si>
+  <si>
+    <t>BRO0.msh (93)</t>
+  </si>
+  <si>
+    <t>93, 92, 59</t>
+  </si>
+  <si>
+    <t>93, 92, 59 --&gt; not working</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
   <dimension ref="B3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -481,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -498,11 +504,14 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -514,13 +523,16 @@
         <v>44227</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -532,16 +544,16 @@
         <v>44227</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
